--- a/academias/Electricidad - Estadisticos 20202.xlsx
+++ b/academias/Electricidad - Estadisticos 20202.xlsx
@@ -2671,19 +2671,19 @@
         <v>37</v>
       </c>
       <c r="E18">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>83.78</v>
+        <v>97.3</v>
       </c>
       <c r="H18">
-        <v>16.22</v>
+        <v>2.7</v>
       </c>
       <c r="I18">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="J18">
         <v>0</v>
